--- a/DesignDocs/VariableData/Skill.xlsx
+++ b/DesignDocs/VariableData/Skill.xlsx
@@ -5,16 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Silverfox_x\Desktop\로그라이크\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\2D-Side-View-Roguelike\DesignDocs\VariableData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCF7BB7B-0CF4-4E35-9AE8-4CC2B1FAC8DB}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50C2212D-A383-488D-A1D4-78D31B2EEF31}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16080" windowHeight="8010" xr2:uid="{A0120107-67BC-4CCD-A631-285C5185204A}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16080" windowHeight="8010" activeTab="1" xr2:uid="{A0120107-67BC-4CCD-A631-285C5185204A}"/>
   </bookViews>
   <sheets>
-    <sheet name="디스크립션" sheetId="1" r:id="rId1"/>
-    <sheet name="Skill" sheetId="2" r:id="rId2"/>
+    <sheet name="Skill" sheetId="2" r:id="rId1"/>
+    <sheet name="디스크립션" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -488,85 +488,6 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDFE1BF1-A637-4A38-9CE9-C217027D4936}">
-  <dimension ref="B2:G8"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="3" max="3" width="14.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="50.75" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="C3" t="s">
-        <v>0</v>
-      </c>
-      <c r="G3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="C4" t="s">
-        <v>1</v>
-      </c>
-      <c r="G4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="C5" t="s">
-        <v>2</v>
-      </c>
-      <c r="G5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="C6" t="s">
-        <v>3</v>
-      </c>
-      <c r="G6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="C7" t="s">
-        <v>4</v>
-      </c>
-      <c r="G7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="C8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B81D0F9F-851D-422D-87D2-056EF5FA5E7D}">
   <dimension ref="A1:F4"/>
   <sheetViews>
@@ -645,4 +566,83 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDFE1BF1-A637-4A38-9CE9-C217027D4936}">
+  <dimension ref="B2:G8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="14.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="50.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/DesignDocs/VariableData/Skill.xlsx
+++ b/DesignDocs/VariableData/Skill.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\2D-Side-View-Roguelike\DesignDocs\VariableData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50C2212D-A383-488D-A1D4-78D31B2EEF31}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DC60460-F1D9-4AFA-8737-7A071A76CBA0}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16080" windowHeight="8010" activeTab="1" xr2:uid="{A0120107-67BC-4CCD-A631-285C5185204A}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16080" windowHeight="8010" xr2:uid="{A0120107-67BC-4CCD-A631-285C5185204A}"/>
   </bookViews>
   <sheets>
     <sheet name="Skill" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
   <si>
     <t>cid</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -48,38 +48,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Sakura_01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sakura_02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sakura_03</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>빙결탄</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>난사</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>낙석</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Range</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sprite</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>melee</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -92,14 +60,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Slow_01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Angle</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>열</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -125,6 +85,26 @@
   </si>
   <si>
     <t>sprite</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19_DeadlyAttack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19_CriticalHit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데들리 어택</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>크리티컬 히트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{(melee, 2, 2, 2)}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -489,10 +469,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B81D0F9F-851D-422D-87D2-056EF5FA5E7D}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -514,52 +494,35 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>1000</v>
+        <v>19101</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>1002</v>
+        <v>19102</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="E3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>1003</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -572,8 +535,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDFE1BF1-A637-4A38-9CE9-C217027D4936}">
   <dimension ref="B2:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -584,16 +547,16 @@
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.3">
@@ -601,7 +564,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.3">
@@ -609,7 +572,7 @@
         <v>1</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.3">
@@ -617,7 +580,7 @@
         <v>2</v>
       </c>
       <c r="G5" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.3">
@@ -625,7 +588,7 @@
         <v>3</v>
       </c>
       <c r="G6" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.3">
@@ -633,12 +596,12 @@
         <v>4</v>
       </c>
       <c r="G7" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/DesignDocs/VariableData/Skill.xlsx
+++ b/DesignDocs/VariableData/Skill.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\2D-Side-View-Roguelike\DesignDocs\VariableData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DC60460-F1D9-4AFA-8737-7A071A76CBA0}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16080" windowHeight="8010" xr2:uid="{A0120107-67BC-4CCD-A631-285C5185204A}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16080" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Skill" sheetId="2" r:id="rId1"/>
     <sheet name="디스크립션" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="23">
   <si>
     <t>cid</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -105,13 +104,25 @@
   </si>
   <si>
     <t>{(melee, 2, 2, 2)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19_Badbomb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>썩은 폭탄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{(range, 1, 5, 5, 0, target)}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -468,14 +479,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B81D0F9F-851D-422D-87D2-056EF5FA5E7D}">
-  <dimension ref="A1:F3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -523,6 +542,20 @@
       </c>
       <c r="E3" t="s">
         <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>19103</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -532,11 +565,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDFE1BF1-A637-4A38-9CE9-C217027D4936}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/DesignDocs/VariableData/Skill.xlsx
+++ b/DesignDocs/VariableData/Skill.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
   <si>
     <t>cid</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -116,6 +116,10 @@
   </si>
   <si>
     <t>{(range, 1, 5, 5, 0, target)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{(melee, 2, 2, 2)}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -483,7 +487,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -527,7 +531,7 @@
         <v>17</v>
       </c>
       <c r="E2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -568,8 +572,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:G8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/DesignDocs/VariableData/Skill.xlsx
+++ b/DesignDocs/VariableData/Skill.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="42">
   <si>
     <t>cid</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -115,11 +115,83 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{(range, 1, 5, 5, 0, target)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{(melee, 2, 2, 2)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{(19010)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{(Bounce, 4, 4, 5, 5)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{(Range, 0, 4, 0, 10, target)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{(19030)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ET</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19_MustleMustle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19_HustleHustle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>머슬머슬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>허슬허슬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19_CastleCastle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐슬캐슬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ET</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{(Dash, 0, 3, 0, 10)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{(19152)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{(Instant, 3, 3, 0, 10)}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -484,23 +556,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.75" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="24.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -519,8 +591,11 @@
       <c r="F1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>19101</v>
       </c>
@@ -531,10 +606,13 @@
         <v>17</v>
       </c>
       <c r="E2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+      <c r="G2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>19102</v>
       </c>
@@ -547,8 +625,11 @@
       <c r="E3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>19103</v>
       </c>
@@ -559,12 +640,76 @@
         <v>21</v>
       </c>
       <c r="E4" t="s">
-        <v>22</v>
+        <v>28</v>
+      </c>
+      <c r="F4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>19200</v>
+      </c>
+      <c r="B5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>19201</v>
+      </c>
+      <c r="B6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>19202</v>
+      </c>
+      <c r="B7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/DesignDocs/VariableData/Skill.xlsx
+++ b/DesignDocs/VariableData/Skill.xlsx
@@ -559,7 +559,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/DesignDocs/VariableData/Skill.xlsx
+++ b/DesignDocs/VariableData/Skill.xlsx
@@ -87,111 +87,111 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>19_CriticalHit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데들리 어택</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>크리티컬 히트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{(melee, 2, 2, 2)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19_Badbomb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>썩은 폭탄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{(melee, 2, 2, 2)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{(19010)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{(19030)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ET</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19_MustleMustle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19_HustleHustle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>머슬머슬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>허슬허슬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19_CastleCastle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐슬캐슬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ET</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{(19152)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{(bounce, 4, 4, 5, 5)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{(range, 0, 4, 0, 10, target)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{(dash, 0, 3, 0, 10)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{(instant, 3, 3, 0, 10)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>19_DeadlyAttack</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>19_CriticalHit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>데들리 어택</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>크리티컬 히트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{(melee, 2, 2, 2)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>19_Badbomb</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>썩은 폭탄</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{(melee, 2, 2, 2)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SB</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SB</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{(19010)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{(Bounce, 4, 4, 5, 5)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{(Range, 0, 4, 0, 10, target)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{(19030)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ET</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>19_MustleMustle</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>19_HustleHustle</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>머슬머슬</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>허슬허슬</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>19_CastleCastle</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>캐슬캐슬</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ET</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{(Dash, 0, 3, 0, 10)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{(19152)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{(Instant, 3, 3, 0, 10)}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -559,7 +559,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -592,7 +592,7 @@
         <v>7</v>
       </c>
       <c r="G1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -600,16 +600,16 @@
         <v>19101</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -617,16 +617,16 @@
         <v>19102</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" t="s">
         <v>18</v>
       </c>
-      <c r="E3" t="s">
-        <v>19</v>
-      </c>
       <c r="G3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -634,19 +634,19 @@
         <v>19103</v>
       </c>
       <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s">
         <v>20</v>
       </c>
-      <c r="C4" t="s">
-        <v>21</v>
-      </c>
       <c r="E4" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="F4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -654,19 +654,19 @@
         <v>19200</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E5" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="F5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -674,16 +674,16 @@
         <v>19201</v>
       </c>
       <c r="B6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C6" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E6" t="s">
         <v>39</v>
       </c>
       <c r="G6" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -691,19 +691,19 @@
         <v>19202</v>
       </c>
       <c r="B7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" t="s">
         <v>36</v>
       </c>
-      <c r="C7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E7" t="s">
-        <v>41</v>
-      </c>
-      <c r="F7" t="s">
-        <v>40</v>
-      </c>
       <c r="G7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/DesignDocs/VariableData/Skill.xlsx
+++ b/DesignDocs/VariableData/Skill.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\2D-Side-View-Roguelike\DesignDocs\VariableData\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{120AB6E3-3E2C-4D57-AC81-2793FBBB24FE}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16080" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16080" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Skill" sheetId="2" r:id="rId1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="44">
   <si>
     <t>cid</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -192,13 +193,21 @@
   </si>
   <si>
     <t>19_DeadlyAttack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nameKor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>attackType</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -555,11 +564,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -580,13 +589,13 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>42</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>43</v>
       </c>
       <c r="F1" t="s">
         <v>7</v>
@@ -714,7 +723,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:G8"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
